--- a/test/templates/test-formula.xlsx
+++ b/test/templates/test-formula.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\d\kant\GitHub\xlsx-template\test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C6A43B-5B48-4FD5-BA99-650A92C72E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="OrderTable">Table3[#All]</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,19 +36,19 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>${table:data.quantity}</t>
-  </si>
-  <si>
-    <t>${table:data.name}</t>
-  </si>
-  <si>
     <t>UnitCost</t>
   </si>
   <si>
-    <t>${table:data.unitCost}</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>{table:data.name}</t>
+  </si>
+  <si>
+    <t>{table:data.quantity}</t>
+  </si>
+  <si>
+    <t>{table:data.unitCost}</t>
   </si>
 </sst>
 </file>
@@ -96,7 +97,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -164,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -204,7 +205,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -310,7 +311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,21 +483,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="e">
         <f>Table3[Qty]*Table3[UnitCost]</f>
